--- a/data/descargables/RecursosCFK.xlsx
+++ b/data/descargables/RecursosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF234"/>
+  <dimension ref="A1:AF235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31012,6 +31012,136 @@
         </is>
       </c>
     </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>249</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>24/05</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Encuesta Equipos</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+      <c r="E235" t="n">
+        <v>249</v>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>anabell.zuniga.cfk2022@gmail.com</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>Dos</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I235" t="n">
+        <v>2</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>No hay más dispositivos en las aulas</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
+        </is>
+      </c>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="n">
+        <v>52</v>
+      </c>
+      <c r="N235" t="n">
+        <v>52</v>
+      </c>
+      <c r="O235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Windows 7 o superior (32 bits)</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
+        <v>0</v>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de software educativo (Ej. cursos de inglés)</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr"/>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V235" t="n">
+        <v>10</v>
+      </c>
+      <c r="W235" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y235" t="inlineStr">
+        <is>
+          <t>Tarjetas micro:bit., 6</t>
+        </is>
+      </c>
+      <c r="Z235" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA235" t="inlineStr">
+        <is>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
+        </is>
+      </c>
+      <c r="AB235" t="inlineStr">
+        <is>
+          <t>No disponen de Ningún elemento para el desarrollo de este tipo de proyectos</t>
+        </is>
+      </c>
+      <c r="AC235" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD235" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE235" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF235" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/RecursosCFK.xlsx
+++ b/data/descargables/RecursosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF235"/>
+  <dimension ref="A1:AF239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31142,6 +31142,518 @@
       </c>
       <c r="AF235" t="inlineStr"/>
     </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>250</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Encuesta Equipos</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>084</t>
+        </is>
+      </c>
+      <c r="E236" t="n">
+        <v>250</v>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>paola.gonzalez.cfk2022@gmail.com</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>Cinco</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I236" t="n">
+        <v>3</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Televisor, Video proyector</t>
+        </is>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
+        </is>
+      </c>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="n">
+        <v>311</v>
+      </c>
+      <c r="N236" t="n">
+        <v>311</v>
+      </c>
+      <c r="O236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Windows 7 o superior (32 bits)</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
+        <v>0</v>
+      </c>
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc)</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr">
+        <is>
+          <t>Los equipos están obsoletos, no tienen mucha memoria, son lentos y usualmente el difícil conectarse a internet</t>
+        </is>
+      </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V236" t="n">
+        <v>785</v>
+      </c>
+      <c r="W236" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y236" t="inlineStr">
+        <is>
+          <t>Tarjetas micro:bit.</t>
+        </is>
+      </c>
+      <c r="Z236" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA236" t="inlineStr">
+        <is>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
+        </is>
+      </c>
+      <c r="AB236" t="inlineStr"/>
+      <c r="AC236" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD236" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE236" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>251</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Encuesta Equipos</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="E237" t="n">
+        <v>251</v>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>carolina.timana.cfk2022@gmail.com</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>Una</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Video proyector</t>
+        </is>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="n">
+        <v>51</v>
+      </c>
+      <c r="N237" t="n">
+        <v>38</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>Algunos de ellos</t>
+        </is>
+      </c>
+      <c r="Q237" t="inlineStr">
+        <is>
+          <t>Windows 7 o superior (64 bits)</t>
+        </is>
+      </c>
+      <c r="R237" t="n">
+        <v>0</v>
+      </c>
+      <c r="S237" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc)</t>
+        </is>
+      </c>
+      <c r="T237" t="inlineStr">
+        <is>
+          <t>La institución educativa no cuenta con internet, sólo se cuenta con una sala de informática no se puede llevar a cabo las diferentes áreas todos los docentes no pueden acceder a ella</t>
+        </is>
+      </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V237" t="n">
+        <v>15</v>
+      </c>
+      <c r="W237" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y237" t="inlineStr">
+        <is>
+          <t>Arduino, Tarjetas micro:bit.</t>
+        </is>
+      </c>
+      <c r="Z237" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA237" t="inlineStr">
+        <is>
+          <t>LEDs, Servomotores, Cables cocodrilo</t>
+        </is>
+      </c>
+      <c r="AB237" t="inlineStr"/>
+      <c r="AC237" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD237" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE237" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF237" t="inlineStr">
+        <is>
+          <t>Existe un kit de ruta stem con material desconectado</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>252</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Encuesta Equipos</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>081</t>
+        </is>
+      </c>
+      <c r="E238" t="n">
+        <v>252</v>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>jatrupe@gmail.com</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>Una</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr">
+        <is>
+          <t>Televisor, tabletas</t>
+        </is>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="n">
+        <v>12</v>
+      </c>
+      <c r="N238" t="n">
+        <v>12</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q238" t="inlineStr">
+        <is>
+          <t>Windows 7 o superior (32 bits)</t>
+        </is>
+      </c>
+      <c r="R238" t="n">
+        <v>0</v>
+      </c>
+      <c r="S238" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office)</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t>Las tabletas tiene poca capacidad en cuanto a procesador y disco duro, lo que se dificulta instalar cualquier tipo de programa</t>
+        </is>
+      </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V238" t="n">
+        <v>30</v>
+      </c>
+      <c r="W238" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y238" t="inlineStr">
+        <is>
+          <t>no hay</t>
+        </is>
+      </c>
+      <c r="Z238" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA238" t="inlineStr">
+        <is>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
+        </is>
+      </c>
+      <c r="AB238" t="inlineStr"/>
+      <c r="AC238" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD238" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE238" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>253</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Encuesta Equipos</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="E239" t="n">
+        <v>253</v>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>rosmomo_1972@hotmail.com</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>Una</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="I239" t="n">
+        <v>13</v>
+      </c>
+      <c r="J239" t="inlineStr">
+        <is>
+          <t>Televisor</t>
+        </is>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
+        </is>
+      </c>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="n">
+        <v>40</v>
+      </c>
+      <c r="N239" t="n">
+        <v>40</v>
+      </c>
+      <c r="O239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Windows 7 o superior (64 bits)</t>
+        </is>
+      </c>
+      <c r="R239" t="n">
+        <v>0</v>
+      </c>
+      <c r="S239" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de software educativo (Ej. cursos de inglés)</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr"/>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V239" t="inlineStr"/>
+      <c r="W239" t="inlineStr"/>
+      <c r="X239" t="inlineStr"/>
+      <c r="Y239" t="inlineStr">
+        <is>
+          <t>Tarjetas micro:bit.</t>
+        </is>
+      </c>
+      <c r="Z239" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA239" t="inlineStr">
+        <is>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
+        </is>
+      </c>
+      <c r="AB239" t="inlineStr"/>
+      <c r="AC239" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD239" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE239" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF239" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/RecursosCFK.xlsx
+++ b/data/descargables/RecursosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF239"/>
+  <dimension ref="A1:AF240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31654,6 +31654,140 @@
       </c>
       <c r="AF239" t="inlineStr"/>
     </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>254</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>25/05</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Encuesta Equipos</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="E240" t="n">
+        <v>254</v>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>inesitamendez66@gmail.com</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>Dos</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Algunas sí, pero no todas</t>
+        </is>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr">
+        <is>
+          <t>Televisor, Video proyector</t>
+        </is>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>Puertos de cableado estructurado para conexión a la red, Módem</t>
+        </is>
+      </c>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Los docentes tienen un computador por área que se rota por las aulas que todas tienen tv. </t>
+        </is>
+      </c>
+      <c r="M240" t="n">
+        <v>70</v>
+      </c>
+      <c r="N240" t="n">
+        <v>67</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q240" t="inlineStr">
+        <is>
+          <t>Windows 7 o superior (64 bits)</t>
+        </is>
+      </c>
+      <c r="R240" t="n">
+        <v>0</v>
+      </c>
+      <c r="S240" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office)</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr"/>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V240" t="n">
+        <v>30</v>
+      </c>
+      <c r="W240" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y240" t="inlineStr">
+        <is>
+          <t>Tarjetas micro:bit.</t>
+        </is>
+      </c>
+      <c r="Z240" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA240" t="inlineStr">
+        <is>
+          <t>No hay ningún elemento adicional a las micro:bits, Cautines, Pinzas</t>
+        </is>
+      </c>
+      <c r="AB240" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contamos con un Kit de robótica </t>
+        </is>
+      </c>
+      <c r="AC240" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD240" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE240" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF240" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
